--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Mmrn2</t>
   </si>
   <si>
     <t>Cd248</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.006619</v>
+        <v>46.105436</v>
       </c>
       <c r="H2">
-        <v>123.019857</v>
+        <v>138.316308</v>
       </c>
       <c r="I2">
-        <v>0.9349081063755518</v>
+        <v>0.929514990096053</v>
       </c>
       <c r="J2">
-        <v>0.9349081063755517</v>
+        <v>0.9295149900960532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.076744333333334</v>
+        <v>1.765932333333333</v>
       </c>
       <c r="N2">
-        <v>12.230233</v>
+        <v>5.297797</v>
       </c>
       <c r="O2">
-        <v>0.05973665973801369</v>
+        <v>0.02646494741755958</v>
       </c>
       <c r="P2">
-        <v>0.05973665973801369</v>
+        <v>0.02646494741755958</v>
       </c>
       <c r="Q2">
-        <v>167.173501637409</v>
+        <v>81.41908017483067</v>
       </c>
       <c r="R2">
-        <v>1504.561514736681</v>
+        <v>732.7717215734759</v>
       </c>
       <c r="S2">
-        <v>0.05584828743686705</v>
+        <v>0.02459956533672546</v>
       </c>
       <c r="T2">
-        <v>0.05584828743686704</v>
+        <v>0.02459956533672546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.006619</v>
+        <v>46.105436</v>
       </c>
       <c r="H3">
-        <v>123.019857</v>
+        <v>138.316308</v>
       </c>
       <c r="I3">
-        <v>0.9349081063755518</v>
+        <v>0.929514990096053</v>
       </c>
       <c r="J3">
-        <v>0.9349081063755517</v>
+        <v>0.9295149900960532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>179.961086</v>
       </c>
       <c r="O3">
-        <v>0.8789917706772568</v>
+        <v>0.8989888963652094</v>
       </c>
       <c r="P3">
-        <v>0.8789917706772566</v>
+        <v>0.8989888963652094</v>
       </c>
       <c r="Q3">
-        <v>2459.865229476078</v>
+        <v>2765.728111021166</v>
       </c>
       <c r="R3">
-        <v>22138.7870652847</v>
+        <v>24891.55299919049</v>
       </c>
       <c r="S3">
-        <v>0.8217765318435674</v>
+        <v>0.8356236551013693</v>
       </c>
       <c r="T3">
-        <v>0.8217765318435671</v>
+        <v>0.8356236551013694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.006619</v>
+        <v>46.105436</v>
       </c>
       <c r="H4">
-        <v>123.019857</v>
+        <v>138.316308</v>
       </c>
       <c r="I4">
-        <v>0.9349081063755518</v>
+        <v>0.929514990096053</v>
       </c>
       <c r="J4">
-        <v>0.9349081063755517</v>
+        <v>0.9295149900960532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.122887</v>
+        <v>4.969642</v>
       </c>
       <c r="N4">
-        <v>12.368661</v>
+        <v>14.908926</v>
       </c>
       <c r="O4">
-        <v>0.06041278964773933</v>
+        <v>0.07447698404493167</v>
       </c>
       <c r="P4">
-        <v>0.06041278964773933</v>
+        <v>0.07447698404493167</v>
       </c>
       <c r="Q4">
-        <v>169.065656389053</v>
+        <v>229.127511173912</v>
       </c>
       <c r="R4">
-        <v>1521.590907501477</v>
+        <v>2062.147600565208</v>
       </c>
       <c r="S4">
-        <v>0.05648040677043251</v>
+        <v>0.06922747308690855</v>
       </c>
       <c r="T4">
-        <v>0.05648040677043251</v>
+        <v>0.06922747308690858</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.006619</v>
+        <v>46.105436</v>
       </c>
       <c r="H5">
-        <v>123.019857</v>
+        <v>138.316308</v>
       </c>
       <c r="I5">
-        <v>0.9349081063755518</v>
+        <v>0.929514990096053</v>
       </c>
       <c r="J5">
-        <v>0.9349081063755517</v>
+        <v>0.9295149900960532</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05860766666666667</v>
+        <v>0.004615666666666666</v>
       </c>
       <c r="N5">
-        <v>0.175823</v>
+        <v>0.013847</v>
       </c>
       <c r="O5">
-        <v>0.0008587799369903076</v>
+        <v>6.917217229934394E-05</v>
       </c>
       <c r="P5">
-        <v>0.0008587799369903074</v>
+        <v>6.917217229934394E-05</v>
       </c>
       <c r="Q5">
-        <v>2.403302257479</v>
+        <v>0.2128073240973333</v>
       </c>
       <c r="R5">
-        <v>21.629720317311</v>
+        <v>1.915265916876</v>
       </c>
       <c r="S5">
-        <v>0.0008028803246849241</v>
+        <v>6.429657104974714E-05</v>
       </c>
       <c r="T5">
-        <v>0.0008028803246849239</v>
+        <v>6.429657104974716E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>6.206586999999999</v>
       </c>
       <c r="I6">
-        <v>0.0471679015138598</v>
+        <v>0.04170958390412858</v>
       </c>
       <c r="J6">
-        <v>0.04716790151385979</v>
+        <v>0.04170958390412859</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.076744333333334</v>
+        <v>1.765932333333333</v>
       </c>
       <c r="N6">
-        <v>12.230233</v>
+        <v>5.297797</v>
       </c>
       <c r="O6">
-        <v>0.05973665973801369</v>
+        <v>0.02646494741755958</v>
       </c>
       <c r="P6">
-        <v>0.05973665973801369</v>
+        <v>0.02646494741755958</v>
       </c>
       <c r="Q6">
-        <v>8.434222793863444</v>
+        <v>3.653470887648778</v>
       </c>
       <c r="R6">
-        <v>75.908005144771</v>
+        <v>32.881237988839</v>
       </c>
       <c r="S6">
-        <v>0.002817652883289584</v>
+        <v>0.001103841944831052</v>
       </c>
       <c r="T6">
-        <v>0.002817652883289583</v>
+        <v>0.001103841944831052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>6.206586999999999</v>
       </c>
       <c r="I7">
-        <v>0.0471679015138598</v>
+        <v>0.04170958390412858</v>
       </c>
       <c r="J7">
-        <v>0.04716790151385979</v>
+        <v>0.04170958390412859</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>179.961086</v>
       </c>
       <c r="O7">
-        <v>0.8789917706772568</v>
+        <v>0.8989888963652094</v>
       </c>
       <c r="P7">
-        <v>0.8789917706772566</v>
+        <v>0.8989888963652094</v>
       </c>
       <c r="Q7">
-        <v>124.1049040970535</v>
+        <v>124.1049040970536</v>
       </c>
       <c r="R7">
         <v>1116.944136873482</v>
       </c>
       <c r="S7">
-        <v>0.04146019727079808</v>
+        <v>0.03749645280182465</v>
       </c>
       <c r="T7">
-        <v>0.04146019727079807</v>
+        <v>0.03749645280182466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>6.206586999999999</v>
       </c>
       <c r="I8">
-        <v>0.0471679015138598</v>
+        <v>0.04170958390412858</v>
       </c>
       <c r="J8">
-        <v>0.04716790151385979</v>
+        <v>0.04170958390412859</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.122887</v>
+        <v>4.969642</v>
       </c>
       <c r="N8">
-        <v>12.368661</v>
+        <v>14.908926</v>
       </c>
       <c r="O8">
-        <v>0.06041278964773933</v>
+        <v>0.07447698404493167</v>
       </c>
       <c r="P8">
-        <v>0.06041278964773933</v>
+        <v>0.07447698404493167</v>
       </c>
       <c r="Q8">
-        <v>8.529685618889665</v>
+        <v>10.28150514395133</v>
       </c>
       <c r="R8">
-        <v>76.76717057000698</v>
+        <v>92.53354629556199</v>
       </c>
       <c r="S8">
-        <v>0.002849544512282098</v>
+        <v>0.003106404014948523</v>
       </c>
       <c r="T8">
-        <v>0.002849544512282097</v>
+        <v>0.003106404014948523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>6.206586999999999</v>
       </c>
       <c r="I9">
-        <v>0.0471679015138598</v>
+        <v>0.04170958390412858</v>
       </c>
       <c r="J9">
-        <v>0.04716790151385979</v>
+        <v>0.04170958390412859</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05860766666666667</v>
+        <v>0.004615666666666666</v>
       </c>
       <c r="N9">
-        <v>0.175823</v>
+        <v>0.013847</v>
       </c>
       <c r="O9">
-        <v>0.0008587799369903076</v>
+        <v>6.917217229934394E-05</v>
       </c>
       <c r="P9">
-        <v>0.0008587799369903074</v>
+        <v>6.917217229934394E-05</v>
       </c>
       <c r="Q9">
-        <v>0.1212511940112222</v>
+        <v>0.009549178909888887</v>
       </c>
       <c r="R9">
-        <v>1.091260746101</v>
+        <v>0.08594261018899998</v>
       </c>
       <c r="S9">
-        <v>4.050684749003755E-05</v>
+        <v>2.885142524350325E-06</v>
       </c>
       <c r="T9">
-        <v>4.050684749003753E-05</v>
+        <v>2.885142524350325E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7861760000000001</v>
+        <v>1.378131333333333</v>
       </c>
       <c r="H10">
-        <v>2.358528</v>
+        <v>4.134394</v>
       </c>
       <c r="I10">
-        <v>0.01792399211058844</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="J10">
-        <v>0.01792399211058843</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.076744333333334</v>
+        <v>1.765932333333333</v>
       </c>
       <c r="N10">
-        <v>12.230233</v>
+        <v>5.297797</v>
       </c>
       <c r="O10">
-        <v>0.05973665973801369</v>
+        <v>0.02646494741755958</v>
       </c>
       <c r="P10">
-        <v>0.05973665973801369</v>
+        <v>0.02646494741755958</v>
       </c>
       <c r="Q10">
-        <v>3.205038553002668</v>
+        <v>2.433686681113111</v>
       </c>
       <c r="R10">
-        <v>28.84534697702401</v>
+        <v>21.903180130018</v>
       </c>
       <c r="S10">
-        <v>0.001070719417857063</v>
+        <v>0.00073530227058089</v>
       </c>
       <c r="T10">
-        <v>0.001070719417857063</v>
+        <v>0.0007353022705808901</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7861760000000001</v>
+        <v>1.378131333333333</v>
       </c>
       <c r="H11">
-        <v>2.358528</v>
+        <v>4.134394</v>
       </c>
       <c r="I11">
-        <v>0.01792399211058844</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="J11">
-        <v>0.01792399211058843</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>179.961086</v>
       </c>
       <c r="O11">
-        <v>0.8789917706772568</v>
+        <v>0.8989888963652094</v>
       </c>
       <c r="P11">
-        <v>0.8789917706772566</v>
+        <v>0.8989888963652094</v>
       </c>
       <c r="Q11">
-        <v>47.16036224904534</v>
+        <v>82.67000379909824</v>
       </c>
       <c r="R11">
-        <v>424.443260241408</v>
+        <v>744.0300341918842</v>
       </c>
       <c r="S11">
-        <v>0.01575504156289131</v>
+        <v>0.02497751332336872</v>
       </c>
       <c r="T11">
-        <v>0.01575504156289131</v>
+        <v>0.02497751332336872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7861760000000001</v>
+        <v>1.378131333333333</v>
       </c>
       <c r="H12">
-        <v>2.358528</v>
+        <v>4.134394</v>
       </c>
       <c r="I12">
-        <v>0.01792399211058844</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="J12">
-        <v>0.01792399211058843</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.122887</v>
+        <v>4.969642</v>
       </c>
       <c r="N12">
-        <v>12.368661</v>
+        <v>14.908926</v>
       </c>
       <c r="O12">
-        <v>0.06041278964773933</v>
+        <v>0.07447698404493167</v>
       </c>
       <c r="P12">
-        <v>0.06041278964773933</v>
+        <v>0.07447698404493167</v>
       </c>
       <c r="Q12">
-        <v>3.241314810112</v>
+        <v>6.848819355649334</v>
       </c>
       <c r="R12">
-        <v>29.171833291008</v>
+        <v>61.63937420084401</v>
       </c>
       <c r="S12">
-        <v>0.001082838365024719</v>
+        <v>0.002069269007423739</v>
       </c>
       <c r="T12">
-        <v>0.001082838365024718</v>
+        <v>0.00206926900742374</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7861760000000001</v>
+        <v>1.378131333333333</v>
       </c>
       <c r="H13">
-        <v>2.358528</v>
+        <v>4.134394</v>
       </c>
       <c r="I13">
-        <v>0.01792399211058844</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="J13">
-        <v>0.01792399211058843</v>
+        <v>0.02778400648145685</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05860766666666667</v>
+        <v>0.004615666666666666</v>
       </c>
       <c r="N13">
-        <v>0.175823</v>
+        <v>0.013847</v>
       </c>
       <c r="O13">
-        <v>0.0008587799369903076</v>
+        <v>6.917217229934394E-05</v>
       </c>
       <c r="P13">
-        <v>0.0008587799369903074</v>
+        <v>6.917217229934394E-05</v>
       </c>
       <c r="Q13">
-        <v>0.04607594094933334</v>
+        <v>0.006360994857555555</v>
       </c>
       <c r="R13">
-        <v>0.4146834685440001</v>
+        <v>0.057248953718</v>
       </c>
       <c r="S13">
-        <v>1.539276481534591E-05</v>
+        <v>1.921880083501422E-06</v>
       </c>
       <c r="T13">
-        <v>1.53927648153459E-05</v>
+        <v>1.921880083501422E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.049176</v>
+      </c>
+      <c r="H14">
+        <v>0.147528</v>
+      </c>
+      <c r="I14">
+        <v>0.0009914195183614249</v>
+      </c>
+      <c r="J14">
+        <v>0.0009914195183614251</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.765932333333333</v>
+      </c>
+      <c r="N14">
+        <v>5.297797</v>
+      </c>
+      <c r="O14">
+        <v>0.02646494741755958</v>
+      </c>
+      <c r="P14">
+        <v>0.02646494741755958</v>
+      </c>
+      <c r="Q14">
+        <v>0.086841488424</v>
+      </c>
+      <c r="R14">
+        <v>0.7815733958159999</v>
+      </c>
+      <c r="S14">
+        <v>2.623786542217735E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.623786542217735E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.049176</v>
+      </c>
+      <c r="H15">
+        <v>0.147528</v>
+      </c>
+      <c r="I15">
+        <v>0.0009914195183614249</v>
+      </c>
+      <c r="J15">
+        <v>0.0009914195183614251</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.98702866666667</v>
+      </c>
+      <c r="N15">
+        <v>179.961086</v>
+      </c>
+      <c r="O15">
+        <v>0.8989888963652094</v>
+      </c>
+      <c r="P15">
+        <v>0.8989888963652094</v>
+      </c>
+      <c r="Q15">
+        <v>2.949922121712</v>
+      </c>
+      <c r="R15">
+        <v>26.549299095408</v>
+      </c>
+      <c r="S15">
+        <v>0.0008912751386466648</v>
+      </c>
+      <c r="T15">
+        <v>0.000891275138646665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.049176</v>
+      </c>
+      <c r="H16">
+        <v>0.147528</v>
+      </c>
+      <c r="I16">
+        <v>0.0009914195183614249</v>
+      </c>
+      <c r="J16">
+        <v>0.0009914195183614251</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.969642</v>
+      </c>
+      <c r="N16">
+        <v>14.908926</v>
+      </c>
+      <c r="O16">
+        <v>0.07447698404493167</v>
+      </c>
+      <c r="P16">
+        <v>0.07447698404493167</v>
+      </c>
+      <c r="Q16">
+        <v>0.244387114992</v>
+      </c>
+      <c r="R16">
+        <v>2.199484034928</v>
+      </c>
+      <c r="S16">
+        <v>7.383793565083767E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.38379356508377E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.049176</v>
+      </c>
+      <c r="H17">
+        <v>0.147528</v>
+      </c>
+      <c r="I17">
+        <v>0.0009914195183614249</v>
+      </c>
+      <c r="J17">
+        <v>0.0009914195183614251</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.004615666666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.013847</v>
+      </c>
+      <c r="O17">
+        <v>6.917217229934394E-05</v>
+      </c>
+      <c r="P17">
+        <v>6.917217229934394E-05</v>
+      </c>
+      <c r="Q17">
+        <v>0.000226980024</v>
+      </c>
+      <c r="R17">
+        <v>0.002042820216</v>
+      </c>
+      <c r="S17">
+        <v>6.857864174502906E-08</v>
+      </c>
+      <c r="T17">
+        <v>6.857864174502907E-08</v>
       </c>
     </row>
   </sheetData>
